--- a/Projects/Sort results.xlsx
+++ b/Projects/Sort results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\cpp\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\897333\Documents\1.01 CODE\cpp\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{418786DD-ECEF-4F4E-9826-9DBB3D06F395}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{9666C1BC-02F7-47B2-BA24-BB92E817AB2D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11697"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Bubble sort</t>
   </si>
@@ -40,11 +39,20 @@
   <si>
     <t>Sort speed (seconds)</t>
   </si>
+  <si>
+    <t>not tested</t>
+  </si>
+  <si>
+    <t>file size 115MB</t>
+  </si>
+  <si>
+    <t>file size 11MB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -144,17 +152,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -165,6 +164,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -480,131 +495,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA477DA8-DEC6-4898-BE12-CDD54D39FFBC}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1000</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>5000</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>0.80700000000000005</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>10000</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>3.2120000000000002</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>25000</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>21.56</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="C6" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>50000</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>83.838999999999999</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="C7" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>100000</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>337.36599999999999</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="C8" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>10000000</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.9619999999999997</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -616,24 +682,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DEE71C-17C1-42B4-B866-3DC5415C4E1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92989B07-A168-46C7-83AD-8006520DFB5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projects/Sort results.xlsx
+++ b/Projects/Sort results.xlsx
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Bubble sort</t>
-  </si>
-  <si>
-    <t>Quicksort</t>
   </si>
   <si>
     <t>Data points</t>
@@ -48,6 +45,12 @@
   <si>
     <t>file size 11MB</t>
   </si>
+  <si>
+    <t>Merge sort</t>
+  </si>
+  <si>
+    <t>Quick sort</t>
+  </si>
 </sst>
 </file>
 
@@ -56,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +69,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -166,6 +177,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -175,13 +193,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +511,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -507,32 +519,35 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -548,7 +563,9 @@
       <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -564,7 +581,9 @@
       <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -580,7 +599,9 @@
       <c r="C5" s="6">
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -596,7 +617,9 @@
       <c r="C6" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -612,7 +635,9 @@
       <c r="C7" s="6">
         <v>0.02</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -628,48 +653,54 @@
       <c r="C8" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>1000000</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
         <v>0.71299999999999997</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" t="s">
-        <v>6</v>
+      <c r="I9" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>10000000</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>4</v>
+      <c r="B10" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C10" s="2">
         <v>6.9619999999999997</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="6">
+        <v>12.657</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" t="s">
-        <v>5</v>
+      <c r="I10" s="13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
